--- a/ozone/multistate/ANO-RCC-VTZP/ozone_107.00/ozone_107.00_energies.xlsx
+++ b/ozone/multistate/ANO-RCC-VTZP/ozone_107.00/ozone_107.00_energies.xlsx
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.7289906702</v>
+        <v>-0.5607193805</v>
       </c>
       <c r="C2" t="n">
-        <v>-224.51189408</v>
+        <v>-224.72985331</v>
       </c>
       <c r="D2" t="n">
-        <v>-225.24088475</v>
+        <v>-225.29057269</v>
       </c>
       <c r="E2" t="n">
-        <v>-224.5047077183</v>
+        <v>-224.5047077181</v>
       </c>
     </row>
     <row r="3">
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.7925403766</v>
+        <v>-0.5693031318</v>
       </c>
       <c r="C3" t="n">
-        <v>-224.49366729</v>
+        <v>-224.66900792</v>
       </c>
       <c r="D3" t="n">
-        <v>-225.28620766</v>
+        <v>-225.23831105</v>
       </c>
       <c r="E3" t="n">
-        <v>-224.5047077183</v>
+        <v>-224.5047077181</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.8345995728</v>
+        <v>-0.5700589527</v>
       </c>
       <c r="C4" t="n">
-        <v>-224.42601947</v>
+        <v>-224.63837187</v>
       </c>
       <c r="D4" t="n">
-        <v>-225.26061904</v>
+        <v>-225.20843082</v>
       </c>
       <c r="E4" t="n">
-        <v>-224.5047077183</v>
+        <v>-224.5047077181</v>
       </c>
     </row>
   </sheetData>
